--- a/excel_dump.xlsx
+++ b/excel_dump.xlsx
@@ -24,42 +24,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>excel_table</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>Joe</t>
-  </si>
-  <si>
-    <t>Sam</t>
-  </si>
-  <si>
-    <t>Pete</t>
-  </si>
-  <si>
-    <t>Dave</t>
-  </si>
-  <si>
-    <t>Sue</t>
-  </si>
-  <si>
-    <t>clock</t>
-  </si>
-  <si>
     <t>row1</t>
   </si>
   <si>
-    <t>xtra</t>
-  </si>
-  <si>
-    <t>onemore</t>
+    <t>s</t>
+  </si>
+  <si>
+    <t>tkb_testing_scraptemp</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Cost</t>
   </si>
 </sst>
 </file>
@@ -377,10 +359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -388,119 +370,75 @@
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>6686</v>
       </c>
       <c r="B3">
         <v>10</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>3.45</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>6729</v>
       </c>
       <c r="B4">
         <v>20</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2.75</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4900</v>
       </c>
       <c r="B5">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4916</v>
       </c>
       <c r="B6">
         <v>40</v>
       </c>
       <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>21</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>50</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="F7">
+        <v>1.88</v>
+      </c>
+      <c r="D6" t="s">
         <v>2</v>
       </c>
     </row>

--- a/excel_dump.xlsx
+++ b/excel_dump.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dclark\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Work\programing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,24 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Part</t>
+    <t>quality_tpm_assets</t>
   </si>
   <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Machine</t>
-  </si>
-  <si>
-    <t>PerpetualCount</t>
-  </si>
-  <si>
-    <t>TimeStamp</t>
-  </si>
-  <si>
-    <t>GFxPRoduction</t>
+    <t>Asset</t>
   </si>
 </sst>
 </file>
@@ -376,41 +364,1401 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:A277"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="5" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/excel_dump.xlsx
+++ b/excel_dump.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dclark\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2045" uniqueCount="463">
   <si>
     <t>Q650</t>
   </si>
@@ -939,6 +939,598 @@
   </si>
   <si>
     <t>Desc1</t>
+  </si>
+  <si>
+    <t>Q239</t>
+  </si>
+  <si>
+    <t>OP07</t>
+  </si>
+  <si>
+    <t>Q240</t>
+  </si>
+  <si>
+    <t>OP 7</t>
+  </si>
+  <si>
+    <t>Checks for correct part program</t>
+  </si>
+  <si>
+    <t>Correct part being run</t>
+  </si>
+  <si>
+    <t>Sensors</t>
+  </si>
+  <si>
+    <t>Q242</t>
+  </si>
+  <si>
+    <t>Q243</t>
+  </si>
+  <si>
+    <t>Prevents non machined part from getting to OP #10</t>
+  </si>
+  <si>
+    <t>Hub ID</t>
+  </si>
+  <si>
+    <t>Once per month</t>
+  </si>
+  <si>
+    <t>Q245</t>
+  </si>
+  <si>
+    <t>OP20</t>
+  </si>
+  <si>
+    <t>Q246</t>
+  </si>
+  <si>
+    <t>B-Diameter is machined</t>
+  </si>
+  <si>
+    <t>Part not loaded</t>
+  </si>
+  <si>
+    <t>Q248</t>
+  </si>
+  <si>
+    <t>OP 40</t>
+  </si>
+  <si>
+    <t>All oil holes present</t>
+  </si>
+  <si>
+    <t>X15 and X16 Oil holes drilled</t>
+  </si>
+  <si>
+    <t>No load monitoring</t>
+  </si>
+  <si>
+    <t>once per month</t>
+  </si>
+  <si>
+    <t>Q253</t>
+  </si>
+  <si>
+    <t>OP80</t>
+  </si>
+  <si>
+    <t>No media in holes
+(4900, 6686, 6729)</t>
+  </si>
+  <si>
+    <t>All holes and pellet holes</t>
+  </si>
+  <si>
+    <t>Visual
+(pin presence)</t>
+  </si>
+  <si>
+    <t>Q254</t>
+  </si>
+  <si>
+    <t>Plate OD is correct size
+(6686, 6729)</t>
+  </si>
+  <si>
+    <t>Oversized plate OD</t>
+  </si>
+  <si>
+    <t>Master ring gauge</t>
+  </si>
+  <si>
+    <t>Q257</t>
+  </si>
+  <si>
+    <t>Turn</t>
+  </si>
+  <si>
+    <t>Q258</t>
+  </si>
+  <si>
+    <t>Rough Cut Offsets at proper setting</t>
+  </si>
+  <si>
+    <t>Counterbore step
+D-Face strip</t>
+  </si>
+  <si>
+    <t>Visual - verify machining steps/strips are visible</t>
+  </si>
+  <si>
+    <t>Every tool change</t>
+  </si>
+  <si>
+    <t>Q276</t>
+  </si>
+  <si>
+    <t>verify that part has not been broached
+(4900, 6686, 6729)</t>
+  </si>
+  <si>
+    <t>Hub is not broached</t>
+  </si>
+  <si>
+    <t>Master parts
+(A157, A158, A159)</t>
+  </si>
+  <si>
+    <t>Q279</t>
+  </si>
+  <si>
+    <t>Broach</t>
+  </si>
+  <si>
+    <t>Part properly broached</t>
+  </si>
+  <si>
+    <t>Part not broached twice</t>
+  </si>
+  <si>
+    <t>Master Sample
+(A-134)</t>
+  </si>
+  <si>
+    <t>Q280</t>
+  </si>
+  <si>
+    <t>Master Sample
+(A-135)</t>
+  </si>
+  <si>
+    <t>Q281</t>
+  </si>
+  <si>
+    <t>All oil holes present
+(4900)</t>
+  </si>
+  <si>
+    <t>X14 Oil holes drilled</t>
+  </si>
+  <si>
+    <t>Red Rabbit</t>
+  </si>
+  <si>
+    <t>Q285</t>
+  </si>
+  <si>
+    <t>Q286</t>
+  </si>
+  <si>
+    <t>Q288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balancing works properly </t>
+  </si>
+  <si>
+    <t>Balance does not exceed requirement</t>
+  </si>
+  <si>
+    <t>Master part
+(A-213 Hines)
+(A-214 ITW)</t>
+  </si>
+  <si>
+    <t>Each shift</t>
+  </si>
+  <si>
+    <t>OP 180</t>
+  </si>
+  <si>
+    <t>Eddy Current Testing verifies no crack conditions are present</t>
+  </si>
+  <si>
+    <t>Locating Holes, Plate OD, Pedestal OD, Pedestal to Face</t>
+  </si>
+  <si>
+    <t>Red Rabbit Master
+(A387, A388, A389, A390)</t>
+  </si>
+  <si>
+    <t>Once per Day</t>
+  </si>
+  <si>
+    <t>Team Leader</t>
+  </si>
+  <si>
+    <t>Q290</t>
+  </si>
+  <si>
+    <t>OP 125</t>
+  </si>
+  <si>
+    <t>Master part
+(A-191)</t>
+  </si>
+  <si>
+    <t>Q291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last machined hole diameter probed matches air gauge values </t>
+  </si>
+  <si>
+    <t>Hole diameter</t>
+  </si>
+  <si>
+    <t>Last part produced</t>
+  </si>
+  <si>
+    <t>Q292</t>
+  </si>
+  <si>
+    <t>AutoGauge</t>
+  </si>
+  <si>
+    <t>Chamfer present
+(50-6729)</t>
+  </si>
+  <si>
+    <t>Missing chamfer does not "PASS"</t>
+  </si>
+  <si>
+    <t>Master part
+(A209)</t>
+  </si>
+  <si>
+    <t>Gague Tech</t>
+  </si>
+  <si>
+    <t>Q293</t>
+  </si>
+  <si>
+    <t>Chamfer present
+(50-6686)</t>
+  </si>
+  <si>
+    <t>Master part
+(A210)</t>
+  </si>
+  <si>
+    <t>Gauge Tech</t>
+  </si>
+  <si>
+    <t>Q294</t>
+  </si>
+  <si>
+    <t>OP90</t>
+  </si>
+  <si>
+    <t>Part loaded properly</t>
+  </si>
+  <si>
+    <t>Red Rabbit Part
+(A-310)</t>
+  </si>
+  <si>
+    <t>Production Tech
+(Ref. SWI-11806)</t>
+  </si>
+  <si>
+    <t>Q296</t>
+  </si>
+  <si>
+    <t>Q297</t>
+  </si>
+  <si>
+    <t>Rough Cut Offsets Set Okay</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Visual - verify machining step is visible</t>
+  </si>
+  <si>
+    <t>Q299</t>
+  </si>
+  <si>
+    <t>Q300</t>
+  </si>
+  <si>
+    <t>Q302</t>
+  </si>
+  <si>
+    <t>Q303</t>
+  </si>
+  <si>
+    <t>Q306</t>
+  </si>
+  <si>
+    <t>Turn &amp; Drill</t>
+  </si>
+  <si>
+    <t>Q307</t>
+  </si>
+  <si>
+    <t>Accoustic Testing Verifies braze presence</t>
+  </si>
+  <si>
+    <t>All braze pellets are present</t>
+  </si>
+  <si>
+    <t>Red Rabbit Master
+(A386)</t>
+  </si>
+  <si>
+    <t>Q310</t>
+  </si>
+  <si>
+    <t>Q313</t>
+  </si>
+  <si>
+    <t>Q314</t>
+  </si>
+  <si>
+    <t>Q316</t>
+  </si>
+  <si>
+    <t>Q318</t>
+  </si>
+  <si>
+    <t>Q320</t>
+  </si>
+  <si>
+    <t>Media Detection</t>
+  </si>
+  <si>
+    <t>Check for media in holes</t>
+  </si>
+  <si>
+    <t>defective parts not passed</t>
+  </si>
+  <si>
+    <t>22 Red Rabbit Master Parts</t>
+  </si>
+  <si>
+    <t>operator</t>
+  </si>
+  <si>
+    <t>Q321</t>
+  </si>
+  <si>
+    <t>Broach present
+(50-6686)</t>
+  </si>
+  <si>
+    <t>Missing broach does not "PASS"</t>
+  </si>
+  <si>
+    <t>Master part
+(A244)</t>
+  </si>
+  <si>
+    <t>Q322</t>
+  </si>
+  <si>
+    <t>All oil holes present
+(50-6686)</t>
+  </si>
+  <si>
+    <t>Missing oil holes does not "PASS"</t>
+  </si>
+  <si>
+    <t>Master part
+(A245)</t>
+  </si>
+  <si>
+    <t>Q323</t>
+  </si>
+  <si>
+    <t>Too many oil holes does not "PASS"</t>
+  </si>
+  <si>
+    <t>Master part
+(A246)</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>All oil holes present
+(50-6729)</t>
+  </si>
+  <si>
+    <t>Master part
+(A247)</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Broach present
+(50-6729)</t>
+  </si>
+  <si>
+    <t>Master part
+(A248)</t>
+  </si>
+  <si>
+    <t>Q326</t>
+  </si>
+  <si>
+    <t>Master part
+(A249)</t>
+  </si>
+  <si>
+    <t>Q327</t>
+  </si>
+  <si>
+    <t>Broach present
+(50-4900)</t>
+  </si>
+  <si>
+    <t>Master part
+(A250)</t>
+  </si>
+  <si>
+    <t>Q328</t>
+  </si>
+  <si>
+    <t>All oil holes present
+(50-4900)</t>
+  </si>
+  <si>
+    <t>Master part
+(A251)</t>
+  </si>
+  <si>
+    <t>Q329</t>
+  </si>
+  <si>
+    <t>Master part
+(A252)</t>
+  </si>
+  <si>
+    <t>Q330</t>
+  </si>
+  <si>
+    <t>Plate chamfer is present
+(6686, 6729)</t>
+  </si>
+  <si>
+    <t>Plate chamfer</t>
+  </si>
+  <si>
+    <t>Master Parts
+(A257, A258)</t>
+  </si>
+  <si>
+    <t>Q331</t>
+  </si>
+  <si>
+    <t>Spider 2 OD groove is present
+(6686, 6729)</t>
+  </si>
+  <si>
+    <t>Spider 2 OD groove</t>
+  </si>
+  <si>
+    <t>Master Parts
+(A276, A277, A278)</t>
+  </si>
+  <si>
+    <t>Q332</t>
+  </si>
+  <si>
+    <t>No deburr media in braze holes
+(4900, 6686, 6729)</t>
+  </si>
+  <si>
+    <t>Pellet Hole</t>
+  </si>
+  <si>
+    <t>Master Parts
+(A282, A284)</t>
+  </si>
+  <si>
+    <t>Q333</t>
+  </si>
+  <si>
+    <t>No deburr media in locator holes
+(4900, 6686, 6729)</t>
+  </si>
+  <si>
+    <t>Locator Hole</t>
+  </si>
+  <si>
+    <t>Master Parts
+(A283, A285)</t>
+  </si>
+  <si>
+    <t>Q334</t>
+  </si>
+  <si>
+    <t>Master Plate
+(M-312)</t>
+  </si>
+  <si>
+    <t>Operator
+(Ref. SWI-11651)</t>
+  </si>
+  <si>
+    <t>Q336</t>
+  </si>
+  <si>
+    <t>Spline, Behind Leg, Balnce Hole, Locator Hole</t>
+  </si>
+  <si>
+    <t>Red Rabbit Master
+(A294, A295, A296, A297)</t>
+  </si>
+  <si>
+    <t>Q337</t>
+  </si>
+  <si>
+    <t>Verifies window is proper size</t>
+  </si>
+  <si>
+    <t>O/S Windows and U/S Windows</t>
+  </si>
+  <si>
+    <t>Red Rabbit Master
+(A299, A207)</t>
+  </si>
+  <si>
+    <t>Q338</t>
+  </si>
+  <si>
+    <t>System not in By-Pass mode</t>
+  </si>
+  <si>
+    <t>Camera verification of induction hardening not by-passed</t>
+  </si>
+  <si>
+    <t>Touch screen panel</t>
+  </si>
+  <si>
+    <t>Production Tech
+(Ref. SWI-11813)</t>
+  </si>
+  <si>
+    <t>Q339</t>
+  </si>
+  <si>
+    <t>System verifying camera is functioning at prescribed frequency</t>
+  </si>
+  <si>
+    <t>Automatic camera verification of missed induction hardening.</t>
+  </si>
+  <si>
+    <t>Visual
+(Un-hardened parts rejected and placed on reject chute)</t>
+  </si>
+  <si>
+    <t>Production Tech</t>
+  </si>
+  <si>
+    <t>Removed</t>
+  </si>
+  <si>
+    <t>50-4748</t>
+  </si>
+  <si>
+    <t>50-3627</t>
   </si>
 </sst>
 </file>
@@ -1304,10 +1896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M152"/>
+  <dimension ref="A1:M281"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:O281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1372,333 +1964,345 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>78</v>
+        <v>166</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>44</v>
+        <v>167</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>42</v>
+        <v>146</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>64</v>
+        <v>169</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="H3" s="8">
-        <v>1501</v>
+        <v>640</v>
+      </c>
+      <c r="I3" s="8">
+        <v>900</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="H4" s="8">
-        <v>1515</v>
+        <v>919</v>
+      </c>
+      <c r="I4" s="8">
+        <v>637</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>79</v>
+        <v>176</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>42</v>
+        <v>177</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>64</v>
+        <v>178</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="H5" s="8">
-        <v>1524</v>
+        <v>728</v>
+      </c>
+      <c r="I5" s="8">
+        <v>645</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>78</v>
+        <v>179</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>64</v>
+        <v>180</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H6" s="8">
-        <v>1525</v>
+        <v>644</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>42</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>64</v>
+        <v>180</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H7" s="8">
-        <v>1501</v>
+        <v>645</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>64</v>
+        <v>180</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H8" s="8">
-        <v>1515</v>
+        <v>646</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>64</v>
+        <v>180</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H9" s="8">
-        <v>1524</v>
+        <v>647</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>64</v>
+        <v>180</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H10" s="8">
-        <v>1525</v>
+        <v>648</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>83</v>
+        <v>179</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>49</v>
+        <v>180</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H11" s="8">
-        <v>1508</v>
+        <v>649</v>
       </c>
       <c r="I11" s="9"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>83</v>
+        <v>181</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H12" s="8">
-        <v>1532</v>
+        <v>644</v>
       </c>
       <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>83</v>
+        <v>181</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H13" s="8">
-        <v>1538</v>
+        <v>645</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>66</v>
+        <v>181</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H14" s="8">
-        <v>1806</v>
+        <v>646</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>107</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>180</v>
+        <v>52</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>6</v>
@@ -1707,24 +2311,24 @@
         <v>5</v>
       </c>
       <c r="H15" s="8">
-        <v>644</v>
+        <v>647</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>180</v>
+        <v>52</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>6</v>
@@ -1733,24 +2337,24 @@
         <v>5</v>
       </c>
       <c r="H16" s="8">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>180</v>
+        <v>52</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>6</v>
@@ -1759,144 +2363,172 @@
         <v>5</v>
       </c>
       <c r="H17" s="8">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>107</v>
+        <v>183</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>17</v>
+        <v>184</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>42</v>
+        <v>185</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="H18" s="8">
-        <v>647</v>
-      </c>
-      <c r="I18" s="9"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>650</v>
+      </c>
+      <c r="I18" s="9">
+        <v>900</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>107</v>
+        <v>183</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>17</v>
+        <v>188</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>42</v>
+        <v>189</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="H19" s="8">
-        <v>648</v>
-      </c>
-      <c r="I19" s="9"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>650</v>
+      </c>
+      <c r="I19" s="9">
+        <v>900</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>107</v>
+        <v>183</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>17</v>
+        <v>192</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="H20" s="8">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>650</v>
+      </c>
+      <c r="I20" s="8">
+        <v>900</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>181</v>
+        <v>144</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>107</v>
+        <v>167</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>2</v>
+        <v>145</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>3</v>
+        <v>146</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>52</v>
+        <v>147</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="H21" s="8">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>640</v>
+      </c>
+      <c r="I21" s="8">
+        <v>900</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>181</v>
+        <v>144</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>2</v>
+        <v>145</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>3</v>
+        <v>146</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>52</v>
+        <v>147</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="H22" s="8">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>640</v>
+      </c>
+      <c r="I22" s="8">
+        <v>900</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>107</v>
@@ -1917,24 +2549,24 @@
         <v>5</v>
       </c>
       <c r="H23" s="8">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>52</v>
+        <v>150</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>6</v>
@@ -1943,38 +2575,44 @@
         <v>5</v>
       </c>
       <c r="H24" s="8">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>107</v>
+        <v>170</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>2</v>
+        <v>152</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>3</v>
+        <v>153</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>52</v>
+        <v>154</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="H25" s="8">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>640</v>
+      </c>
+      <c r="I25" s="8">
+        <v>900</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>181</v>
+        <v>106</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>107</v>
@@ -1995,12 +2633,12 @@
         <v>5</v>
       </c>
       <c r="H26" s="8">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>107</v>
@@ -2021,24 +2659,24 @@
         <v>5</v>
       </c>
       <c r="H27" s="8">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>107</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>150</v>
+        <v>52</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>6</v>
@@ -2047,24 +2685,24 @@
         <v>5</v>
       </c>
       <c r="H28" s="8">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>107</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>6</v>
@@ -2076,21 +2714,21 @@
         <v>618</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>6</v>
@@ -2102,21 +2740,21 @@
         <v>619</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>6</v>
@@ -2128,558 +2766,729 @@
         <v>624</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B32" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" s="8">
+        <v>769</v>
+      </c>
+      <c r="I32" s="8">
+        <v>900</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" s="8">
+        <v>769</v>
+      </c>
+      <c r="I33" s="8">
+        <v>900</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" s="8">
+        <v>769</v>
+      </c>
+      <c r="I34" s="8">
+        <v>900</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" s="8">
+        <v>769</v>
+      </c>
+      <c r="I35" s="8">
+        <v>900</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" s="8">
+        <v>650</v>
+      </c>
+      <c r="I36" s="8">
+        <v>900</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" s="8">
+        <v>769</v>
+      </c>
+      <c r="I37" s="8">
+        <v>900</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" s="8">
+        <v>769</v>
+      </c>
+      <c r="I38" s="8">
+        <v>900</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" s="8">
+        <v>640</v>
+      </c>
+      <c r="I39" s="8">
+        <v>900</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" s="8">
+        <v>650</v>
+      </c>
+      <c r="I40" s="8">
+        <v>900</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" s="8">
+        <v>650</v>
+      </c>
+      <c r="I41" s="8">
+        <v>900</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" s="8">
+        <v>650</v>
+      </c>
+      <c r="I42" s="8">
+        <v>900</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43" s="8">
+        <v>650</v>
+      </c>
+      <c r="I43" s="8">
+        <v>900</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" s="8">
+        <v>769</v>
+      </c>
+      <c r="I44" s="8">
+        <v>900</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45" s="8">
+        <v>769</v>
+      </c>
+      <c r="I45" s="8">
+        <v>900</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H46" s="8">
+        <v>640</v>
+      </c>
+      <c r="I46" s="8">
+        <v>900</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H47" s="8">
+        <v>954</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H48" s="8">
+        <v>331</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H49" s="8">
+        <v>332</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H50" s="8">
+        <v>333</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B51" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C32" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="8">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="8">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" s="8">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+      <c r="C51" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H51" s="8">
+        <v>640</v>
+      </c>
+      <c r="I51" s="8">
+        <v>900</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H52" s="8">
+        <v>640</v>
+      </c>
+      <c r="I52" s="8">
+        <v>900</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B53" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="8">
-        <v>1504</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H36" s="8">
-        <v>1506</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H37" s="8">
-        <v>1518</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H38" s="8">
-        <v>1519</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H39" s="8">
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H40" s="8">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H41" s="8">
-        <v>1522</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H42" s="8">
-        <v>1523</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H43" s="8">
-        <v>1504</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H44" s="8">
-        <v>1506</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H45" s="8">
-        <v>1518</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H46" s="8">
-        <v>1519</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H47" s="8">
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H48" s="8">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H49" s="8">
-        <v>1522</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H50" s="8">
-        <v>1523</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H51" s="8">
-        <v>1502</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H52" s="8">
-        <v>1507</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>2</v>
@@ -2697,15 +3506,15 @@
         <v>5</v>
       </c>
       <c r="H53" s="8">
-        <v>1539</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>2</v>
@@ -2723,15 +3532,15 @@
         <v>5</v>
       </c>
       <c r="H54" s="8">
-        <v>1540</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>2</v>
@@ -2749,15 +3558,15 @@
         <v>5</v>
       </c>
       <c r="H55" s="8">
-        <v>1501</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>2</v>
@@ -2775,15 +3584,15 @@
         <v>5</v>
       </c>
       <c r="H56" s="8">
-        <v>1515</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>2</v>
@@ -2801,15 +3610,15 @@
         <v>5</v>
       </c>
       <c r="H57" s="8">
-        <v>1524</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>2</v>
@@ -2827,24 +3636,24 @@
         <v>5</v>
       </c>
       <c r="H58" s="8">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>6</v>
@@ -2853,24 +3662,24 @@
         <v>5</v>
       </c>
       <c r="H59" s="8">
-        <v>1501</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>6</v>
@@ -2879,24 +3688,24 @@
         <v>5</v>
       </c>
       <c r="H60" s="8">
-        <v>1515</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>6</v>
@@ -2905,24 +3714,24 @@
         <v>5</v>
       </c>
       <c r="H61" s="8">
-        <v>1524</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>6</v>
@@ -2931,16 +3740,16 @@
         <v>5</v>
       </c>
       <c r="H62" s="8">
-        <v>1525</v>
+        <v>1506</v>
       </c>
       <c r="I62" s="9"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>2</v>
@@ -2949,7 +3758,7 @@
         <v>3</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="F63" s="7" t="s">
         <v>6</v>
@@ -2958,15 +3767,15 @@
         <v>5</v>
       </c>
       <c r="H63" s="8">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>2</v>
@@ -2975,7 +3784,7 @@
         <v>3</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="F64" s="4" t="s">
         <v>6</v>
@@ -2984,21 +3793,21 @@
         <v>5</v>
       </c>
       <c r="H64" s="8">
-        <v>1530</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>215</v>
+        <v>75</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>216</v>
+        <v>39</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>217</v>
+        <v>3</v>
       </c>
       <c r="E65" s="7" t="s">
         <v>52</v>
@@ -3010,21 +3819,21 @@
         <v>5</v>
       </c>
       <c r="H65" s="8">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>215</v>
+        <v>75</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>216</v>
+        <v>39</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>217</v>
+        <v>3</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>52</v>
@@ -3036,21 +3845,21 @@
         <v>5</v>
       </c>
       <c r="H66" s="8">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>226</v>
+        <v>75</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>227</v>
+        <v>39</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>217</v>
+        <v>3</v>
       </c>
       <c r="E67" s="7" t="s">
         <v>52</v>
@@ -3062,21 +3871,21 @@
         <v>5</v>
       </c>
       <c r="H67" s="8">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>226</v>
+        <v>75</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>227</v>
+        <v>39</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>217</v>
+        <v>3</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>52</v>
@@ -3088,119 +3897,134 @@
         <v>5</v>
       </c>
       <c r="H68" s="8">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>255</v>
+        <v>213</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>228</v>
+        <v>137</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>2</v>
+        <v>141</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>217</v>
+        <v>142</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>52</v>
+        <v>214</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="H69" s="8">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+        <v>650</v>
+      </c>
+      <c r="I69" s="8">
+        <v>900</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>255</v>
+        <v>55</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>228</v>
+        <v>56</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>217</v>
+        <v>58</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="H70" s="8">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1516</v>
+      </c>
+      <c r="I70" s="8">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>255</v>
+        <v>162</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>228</v>
+        <v>107</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>2</v>
+        <v>163</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>217</v>
+        <v>164</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>52</v>
+        <v>165</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="H71" s="8">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+        <v>637</v>
+      </c>
+      <c r="I71" s="8">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
-        <v>35</v>
+        <v>162</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>36</v>
+        <v>167</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>2</v>
+        <v>163</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>3</v>
+        <v>164</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>37</v>
+        <v>165</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="H72" s="8">
-        <v>1708</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+        <v>637</v>
+      </c>
+      <c r="I72" s="8">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>2</v>
@@ -3209,7 +4033,7 @@
         <v>3</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="F73" s="7" t="s">
         <v>6</v>
@@ -3218,12 +4042,12 @@
         <v>5</v>
       </c>
       <c r="H73" s="8">
-        <v>1709</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>41</v>
@@ -3235,7 +4059,7 @@
         <v>3</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="F74" s="7" t="s">
         <v>6</v>
@@ -3244,15 +4068,15 @@
         <v>5</v>
       </c>
       <c r="H74" s="8">
-        <v>1710</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>2</v>
@@ -3261,7 +4085,7 @@
         <v>3</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="F75" s="7" t="s">
         <v>6</v>
@@ -3270,15 +4094,15 @@
         <v>5</v>
       </c>
       <c r="H75" s="8">
-        <v>1711</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>2</v>
@@ -3287,7 +4111,7 @@
         <v>3</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>6</v>
@@ -3296,15 +4120,15 @@
         <v>5</v>
       </c>
       <c r="H76" s="8">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>2</v>
@@ -3313,7 +4137,7 @@
         <v>3</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="F77" s="7" t="s">
         <v>6</v>
@@ -3322,24 +4146,24 @@
         <v>5</v>
       </c>
       <c r="H77" s="8">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F78" s="7" t="s">
         <v>6</v>
@@ -3348,15 +4172,15 @@
         <v>5</v>
       </c>
       <c r="H78" s="8">
-        <v>1715</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>2</v>
@@ -3365,7 +4189,7 @@
         <v>3</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="F79" s="7" t="s">
         <v>6</v>
@@ -3374,15 +4198,15 @@
         <v>5</v>
       </c>
       <c r="H79" s="8">
-        <v>1701</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>2</v>
@@ -3391,7 +4215,7 @@
         <v>3</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="F80" s="7" t="s">
         <v>6</v>
@@ -3400,232 +4224,232 @@
         <v>5</v>
       </c>
       <c r="H80" s="8">
-        <v>1702</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H81" s="8">
-        <v>788</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H82" s="8">
-        <v>1706</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H83" s="8">
-        <v>1703</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="G84" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H84" s="8">
-        <v>1704</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H85" s="8">
-        <v>659</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H86" s="8">
-        <v>1719</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="G87" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H87" s="8">
-        <v>1705</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H88" s="8">
-        <v>629</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="F89" s="4" t="s">
         <v>6</v>
@@ -3634,24 +4458,24 @@
         <v>5</v>
       </c>
       <c r="H89" s="8">
-        <v>785</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="F90" s="7" t="s">
         <v>6</v>
@@ -3660,24 +4484,24 @@
         <v>5</v>
       </c>
       <c r="H90" s="8">
-        <v>1718</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="F91" s="7" t="s">
         <v>6</v>
@@ -3686,24 +4510,24 @@
         <v>5</v>
       </c>
       <c r="H91" s="8">
-        <v>1722</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="F92" s="7" t="s">
         <v>6</v>
@@ -3712,59 +4536,59 @@
         <v>5</v>
       </c>
       <c r="H92" s="8">
-        <v>1719</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="G93" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H93" s="8">
-        <v>1800</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="94" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="G94" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H94" s="8">
-        <v>1801</v>
+        <v>1532</v>
       </c>
       <c r="I94" s="10"/>
       <c r="J94" s="3"/>
@@ -3774,88 +4598,91 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="G95" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H95" s="8">
-        <v>1802</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="G96" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H96" s="8">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>3</v>
+        <v>261</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="H97" s="8">
-        <v>1801</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1513</v>
+      </c>
+      <c r="I97" s="8">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>2</v>
@@ -3864,7 +4691,7 @@
         <v>3</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="F98" s="7" t="s">
         <v>6</v>
@@ -3873,15 +4700,15 @@
         <v>5</v>
       </c>
       <c r="H98" s="8">
-        <v>1802</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>2</v>
@@ -3890,7 +4717,7 @@
         <v>3</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="F99" s="7" t="s">
         <v>6</v>
@@ -3899,21 +4726,21 @@
         <v>5</v>
       </c>
       <c r="H99" s="8">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>63</v>
+        <v>282</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>41</v>
+        <v>285</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>3</v>
+        <v>217</v>
       </c>
       <c r="E100" s="4" t="s">
         <v>52</v>
@@ -3925,21 +4752,21 @@
         <v>5</v>
       </c>
       <c r="H100" s="8">
-        <v>1529</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>63</v>
+        <v>282</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>41</v>
+        <v>285</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>3</v>
+        <v>217</v>
       </c>
       <c r="E101" s="4" t="s">
         <v>52</v>
@@ -3951,21 +4778,21 @@
         <v>5</v>
       </c>
       <c r="H101" s="8">
-        <v>1543</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
-        <v>65</v>
+        <v>282</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>44</v>
+        <v>285</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>3</v>
+        <v>217</v>
       </c>
       <c r="E102" s="7" t="s">
         <v>52</v>
@@ -3977,24 +4804,24 @@
         <v>5</v>
       </c>
       <c r="H102" s="8">
-        <v>1804</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>65</v>
+        <v>284</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>44</v>
+        <v>285</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>2</v>
+        <v>286</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>3</v>
+        <v>287</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>52</v>
+        <v>288</v>
       </c>
       <c r="F103" s="5" t="s">
         <v>6</v>
@@ -4003,24 +4830,24 @@
         <v>5</v>
       </c>
       <c r="H103" s="10">
-        <v>1805</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
-        <v>71</v>
+        <v>284</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>72</v>
+        <v>285</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>2</v>
+        <v>286</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>3</v>
+        <v>287</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>73</v>
+        <v>288</v>
       </c>
       <c r="F104" s="7" t="s">
         <v>6</v>
@@ -4029,764 +4856,596 @@
         <v>5</v>
       </c>
       <c r="H104" s="8">
-        <v>1812</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
-        <v>166</v>
+        <v>284</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>167</v>
+        <v>285</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>168</v>
+        <v>286</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>146</v>
+        <v>287</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>169</v>
+        <v>288</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="H105" s="8">
-        <v>640</v>
-      </c>
-      <c r="I105" s="8">
-        <v>900</v>
-      </c>
-      <c r="J105" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
-        <v>92</v>
+        <v>289</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>93</v>
+        <v>216</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>94</v>
+        <v>2</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>95</v>
+        <v>217</v>
       </c>
       <c r="E106" s="7" t="s">
         <v>52</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="H106" s="8">
-        <v>919</v>
-      </c>
-      <c r="I106" s="8">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
-        <v>175</v>
+        <v>289</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>107</v>
+        <v>216</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>176</v>
+        <v>2</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>177</v>
+        <v>217</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>178</v>
+        <v>52</v>
       </c>
       <c r="F107" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="H107" s="8">
-        <v>728</v>
-      </c>
-      <c r="I107" s="8">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
-        <v>182</v>
+        <v>289</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>184</v>
+        <v>2</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>186</v>
+        <v>52</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="H108" s="8">
-        <v>650</v>
-      </c>
-      <c r="I108" s="8">
-        <v>900</v>
-      </c>
-      <c r="J108" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
-        <v>187</v>
+        <v>289</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>188</v>
+        <v>2</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>190</v>
+        <v>52</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="H109" s="8">
-        <v>650</v>
-      </c>
-      <c r="I109" s="8">
-        <v>900</v>
-      </c>
-      <c r="J109" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
-        <v>191</v>
+        <v>290</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>192</v>
+        <v>291</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>193</v>
+        <v>292</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>194</v>
+        <v>49</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>20</v>
+        <v>293</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="H110" s="8">
-        <v>650</v>
-      </c>
-      <c r="I110" s="8">
-        <v>900</v>
-      </c>
-      <c r="J110" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
-        <v>144</v>
+        <v>290</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>167</v>
+        <v>216</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>145</v>
+        <v>291</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>146</v>
+        <v>292</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>147</v>
+        <v>49</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>20</v>
+        <v>293</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="H111" s="8">
-        <v>640</v>
-      </c>
-      <c r="I111" s="8">
-        <v>900</v>
-      </c>
-      <c r="J111" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
-        <v>144</v>
+        <v>290</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>107</v>
+        <v>216</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>145</v>
+        <v>291</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>146</v>
+        <v>292</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>147</v>
+        <v>49</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>20</v>
+        <v>293</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="H112" s="8">
-        <v>640</v>
-      </c>
-      <c r="I112" s="8">
-        <v>900</v>
-      </c>
-      <c r="J112" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
-        <v>151</v>
+        <v>290</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>152</v>
+        <v>291</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>153</v>
+        <v>292</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>154</v>
+        <v>49</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>20</v>
+        <v>293</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="H113" s="8">
-        <v>640</v>
-      </c>
-      <c r="I113" s="8">
-        <v>900</v>
-      </c>
-      <c r="J113" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
-        <v>110</v>
+        <v>294</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>111</v>
+        <v>295</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>112</v>
+        <v>2</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>113</v>
+        <v>217</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="H114" s="8">
-        <v>769</v>
-      </c>
-      <c r="I114" s="8">
-        <v>900</v>
-      </c>
-      <c r="J114" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="K114" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="L114" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
-        <v>115</v>
+        <v>294</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>111</v>
+        <v>295</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>116</v>
+        <v>2</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>117</v>
+        <v>217</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>118</v>
+        <v>52</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="H115" s="8">
-        <v>769</v>
-      </c>
-      <c r="I115" s="8">
-        <v>900</v>
-      </c>
-      <c r="J115" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="K115" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="L115" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
-        <v>119</v>
+        <v>294</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>120</v>
+        <v>295</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>121</v>
+        <v>2</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>122</v>
+        <v>217</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="H116" s="8">
-        <v>769</v>
-      </c>
-      <c r="I116" s="8">
-        <v>900</v>
-      </c>
-      <c r="J116" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="K116" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="L116" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
-        <v>124</v>
+        <v>294</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>120</v>
+        <v>295</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>121</v>
+        <v>2</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>125</v>
+        <v>217</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="H117" s="8">
-        <v>769</v>
-      </c>
-      <c r="I117" s="8">
-        <v>900</v>
-      </c>
-      <c r="J117" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="K117" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="L117" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
-        <v>211</v>
+        <v>294</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>137</v>
+        <v>295</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>138</v>
+        <v>2</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>139</v>
+        <v>217</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>212</v>
+        <v>52</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="H118" s="8">
-        <v>650</v>
-      </c>
-      <c r="I118" s="8">
-        <v>900</v>
-      </c>
-      <c r="J118" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
-        <v>140</v>
+        <v>294</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>137</v>
+        <v>295</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>141</v>
+        <v>2</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>142</v>
+        <v>217</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>143</v>
+        <v>52</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="H119" s="8">
-        <v>769</v>
-      </c>
-      <c r="I119" s="8">
-        <v>900</v>
-      </c>
-      <c r="J119" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="K119" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="L119" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
-        <v>127</v>
+        <v>296</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>120</v>
+        <v>295</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>128</v>
+        <v>297</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>129</v>
+        <v>298</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>130</v>
+        <v>49</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>20</v>
+        <v>293</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="H120" s="8">
-        <v>769</v>
-      </c>
-      <c r="I120" s="8">
-        <v>900</v>
-      </c>
-      <c r="J120" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="K120" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="L120" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
-        <v>156</v>
+        <v>296</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>155</v>
+        <v>295</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>157</v>
+        <v>297</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>158</v>
+        <v>298</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>159</v>
+        <v>49</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>20</v>
+        <v>293</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="H121" s="8">
-        <v>640</v>
-      </c>
-      <c r="I121" s="8">
-        <v>900</v>
-      </c>
-      <c r="J121" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
-        <v>195</v>
+        <v>296</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>183</v>
+        <v>295</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>196</v>
+        <v>297</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>197</v>
+        <v>298</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>198</v>
+        <v>49</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>20</v>
+        <v>293</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="H122" s="8">
-        <v>650</v>
-      </c>
-      <c r="I122" s="8">
-        <v>900</v>
-      </c>
-      <c r="J122" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
-        <v>199</v>
+        <v>296</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>183</v>
+        <v>295</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>200</v>
+        <v>297</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>201</v>
+        <v>298</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>202</v>
+        <v>49</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>20</v>
+        <v>293</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="H123" s="8">
-        <v>650</v>
-      </c>
-      <c r="I123" s="8">
-        <v>900</v>
-      </c>
-      <c r="J123" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
-        <v>203</v>
+        <v>296</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>183</v>
+        <v>295</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>204</v>
+        <v>297</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>205</v>
+        <v>298</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>206</v>
+        <v>49</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>20</v>
+        <v>293</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="H124" s="8">
-        <v>650</v>
-      </c>
-      <c r="I124" s="8">
-        <v>900</v>
-      </c>
-      <c r="J124" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
-        <v>207</v>
+        <v>296</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>183</v>
+        <v>295</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>208</v>
+        <v>297</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>209</v>
+        <v>298</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>210</v>
+        <v>49</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>20</v>
+        <v>293</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="H125" s="8">
-        <v>650</v>
-      </c>
-      <c r="I125" s="8">
-        <v>900</v>
-      </c>
-      <c r="J125" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
-        <v>131</v>
+        <v>299</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>121</v>
+        <v>301</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>132</v>
+        <v>302</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>133</v>
+        <v>303</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>20</v>
+        <v>304</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="H126" s="8">
-        <v>769</v>
-      </c>
-      <c r="I126" s="8">
-        <v>900</v>
-      </c>
-      <c r="J126" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="K126" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="L126" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
-        <v>134</v>
+        <v>305</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>120</v>
+        <v>306</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>121</v>
+        <v>307</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>135</v>
+        <v>308</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>136</v>
+        <v>309</v>
       </c>
       <c r="F127" s="7" t="s">
         <v>20</v>
@@ -4795,36 +5454,24 @@
         <v>19</v>
       </c>
       <c r="H127" s="8">
-        <v>769</v>
-      </c>
-      <c r="I127" s="8">
-        <v>900</v>
-      </c>
-      <c r="J127" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="K127" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="L127" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
-        <v>171</v>
+        <v>310</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>170</v>
+        <v>306</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>172</v>
+        <v>311</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>173</v>
+        <v>312</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>174</v>
+        <v>313</v>
       </c>
       <c r="F128" s="7" t="s">
         <v>20</v>
@@ -4833,408 +5480,352 @@
         <v>19</v>
       </c>
       <c r="H128" s="8">
-        <v>640</v>
-      </c>
-      <c r="I128" s="8">
-        <v>900</v>
-      </c>
-      <c r="J128" s="2" t="s">
-        <v>258</v>
+        <v>610</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
-        <v>96</v>
+        <v>314</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>97</v>
+        <v>315</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>99</v>
+        <v>217</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="H129" s="8">
-        <v>954</v>
-      </c>
-      <c r="I129" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="J129" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="K129" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="L129" s="2" t="s">
-        <v>257</v>
+        <v>771</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
-        <v>101</v>
+        <v>314</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>102</v>
+        <v>315</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>103</v>
+        <v>2</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>104</v>
+        <v>217</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="H130" s="8">
-        <v>331</v>
-      </c>
-      <c r="I130" s="11" t="s">
-        <v>264</v>
-      </c>
+        <v>773</v>
+      </c>
+      <c r="I130" s="11"/>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>101</v>
+        <v>316</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>102</v>
+        <v>315</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>103</v>
+        <v>317</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>104</v>
+        <v>318</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>105</v>
+        <v>319</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>20</v>
+        <v>320</v>
       </c>
       <c r="G131" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H131" s="8">
-        <v>332</v>
-      </c>
-      <c r="I131" s="8" t="s">
-        <v>265</v>
+        <v>771</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
-        <v>101</v>
+        <v>316</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>102</v>
+        <v>315</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>103</v>
+        <v>317</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>104</v>
+        <v>318</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>105</v>
+        <v>319</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>20</v>
+        <v>320</v>
       </c>
       <c r="G132" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H132" s="8">
-        <v>333</v>
-      </c>
-      <c r="I132" s="8" t="s">
-        <v>263</v>
+        <v>773</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
-        <v>160</v>
+        <v>215</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>107</v>
+        <v>216</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>161</v>
+        <v>2</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>146</v>
+        <v>217</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>256</v>
+        <v>52</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="H133" s="8">
-        <v>640</v>
-      </c>
-      <c r="I133" s="8">
-        <v>900</v>
-      </c>
-      <c r="J133" s="2" t="s">
-        <v>258</v>
+        <v>670</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
-        <v>160</v>
+        <v>215</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>167</v>
+        <v>216</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>161</v>
+        <v>2</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>146</v>
+        <v>217</v>
       </c>
       <c r="E134" s="7" t="s">
-        <v>256</v>
+        <v>52</v>
       </c>
       <c r="F134" s="7" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="H134" s="8">
-        <v>640</v>
-      </c>
-      <c r="I134" s="8">
-        <v>900</v>
-      </c>
-      <c r="J134" s="2" t="s">
-        <v>258</v>
+        <v>687</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>137</v>
+        <v>216</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>141</v>
+        <v>219</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>142</v>
+        <v>220</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>20</v>
+        <v>222</v>
       </c>
       <c r="G135" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H135" s="8">
-        <v>650</v>
+        <v>670</v>
       </c>
       <c r="I135" s="8">
-        <v>900</v>
-      </c>
-      <c r="J135" s="2" t="s">
-        <v>259</v>
+        <v>670</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
-        <v>55</v>
+        <v>223</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>56</v>
+        <v>216</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>57</v>
+        <v>224</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>58</v>
+        <v>225</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G136" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H136" s="8">
-        <v>1516</v>
+        <v>693</v>
       </c>
       <c r="I136" s="8">
-        <v>1516</v>
+        <v>668</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
-        <v>162</v>
+        <v>226</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>107</v>
+        <v>227</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>163</v>
+        <v>2</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>164</v>
+        <v>217</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>165</v>
+        <v>52</v>
       </c>
       <c r="F137" s="7" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="H137" s="8">
-        <v>637</v>
-      </c>
-      <c r="I137" s="8">
-        <v>637</v>
+        <v>671</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
-        <v>162</v>
+        <v>226</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>167</v>
+        <v>227</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>163</v>
+        <v>2</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>164</v>
+        <v>217</v>
       </c>
       <c r="E138" s="7" t="s">
-        <v>165</v>
+        <v>52</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="H138" s="8">
-        <v>637</v>
-      </c>
-      <c r="I138" s="8">
-        <v>637</v>
+        <v>687</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
-        <v>88</v>
+        <v>255</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>68</v>
+        <v>228</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>261</v>
+        <v>217</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="H139" s="8">
-        <v>1513</v>
-      </c>
-      <c r="I139" s="8">
-        <v>1513</v>
+        <v>565</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
-        <v>218</v>
+        <v>255</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>219</v>
+        <v>2</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E140" s="7" t="s">
-        <v>221</v>
+        <v>52</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>222</v>
+        <v>6</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="H140" s="8">
-        <v>670</v>
-      </c>
-      <c r="I140" s="8">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>224</v>
+        <v>2</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="E141" s="7" t="s">
         <v>52</v>
       </c>
       <c r="F141" s="7" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="H141" s="8">
-        <v>693</v>
-      </c>
-      <c r="I141" s="8">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
@@ -5429,19 +6020,19 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
-        <v>248</v>
+        <v>321</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>245</v>
+        <v>322</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>249</v>
+        <v>323</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>250</v>
+        <v>324</v>
       </c>
       <c r="F147" s="7" t="s">
         <v>20</v>
@@ -5450,36 +6041,24 @@
         <v>19</v>
       </c>
       <c r="H147" s="8">
-        <v>909</v>
-      </c>
-      <c r="I147" s="8">
-        <v>900</v>
-      </c>
-      <c r="J147" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="K147" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="L147" s="2" t="s">
-        <v>267</v>
+        <v>610</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
-        <v>251</v>
+        <v>325</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>252</v>
+        <v>326</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>139</v>
+        <v>327</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>253</v>
+        <v>328</v>
       </c>
       <c r="E148" s="7" t="s">
-        <v>254</v>
+        <v>329</v>
       </c>
       <c r="F148" s="7" t="s">
         <v>20</v>
@@ -5488,36 +6067,24 @@
         <v>19</v>
       </c>
       <c r="H148" s="8">
-        <v>909</v>
-      </c>
-      <c r="I148" s="8">
-        <v>900</v>
-      </c>
-      <c r="J148" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="K148" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="L148" s="2" t="s">
-        <v>267</v>
+        <v>611</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
-        <v>50</v>
+        <v>330</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>51</v>
+        <v>326</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>17</v>
+        <v>327</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>261</v>
+        <v>328</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>52</v>
+        <v>331</v>
       </c>
       <c r="F149" s="7" t="s">
         <v>20</v>
@@ -5526,56 +6093,50 @@
         <v>19</v>
       </c>
       <c r="H149" s="8">
-        <v>1720</v>
-      </c>
-      <c r="I149" s="8">
-        <v>1720</v>
+        <v>611</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
-        <v>15</v>
+        <v>332</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>16</v>
+        <v>300</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>17</v>
+        <v>333</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>261</v>
+        <v>334</v>
       </c>
       <c r="E150" s="7" t="s">
-        <v>18</v>
+        <v>335</v>
       </c>
       <c r="F150" s="7" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="G150" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H150" s="8">
-        <v>1727</v>
-      </c>
-      <c r="I150" s="8">
-        <v>1727</v>
+      <c r="H150" s="8" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
-        <v>31</v>
+        <v>248</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>16</v>
+        <v>230</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>17</v>
+        <v>245</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="E151" s="7" t="s">
-        <v>32</v>
+        <v>250</v>
       </c>
       <c r="F151" s="7" t="s">
         <v>20</v>
@@ -5584,39 +6145,3447 @@
         <v>19</v>
       </c>
       <c r="H151" s="8">
-        <v>1726</v>
+        <v>909</v>
       </c>
       <c r="I151" s="8">
-        <v>1726</v>
+        <v>900</v>
+      </c>
+      <c r="J151" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="K151" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="L151" s="2" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D152" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="E152" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F152" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G152" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H152" s="8">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A153" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D153" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E153" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F153" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G153" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H153" s="8">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A154" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D154" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E154" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F154" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G154" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H154" s="8">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A155" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D155" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E155" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F155" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G155" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H155" s="8">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A156" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D156" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E156" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F156" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G156" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H156" s="8">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A157" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="B157" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="D157" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="E157" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="F157" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="G157" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H157" s="8">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A158" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="D158" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="E158" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="F158" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="G158" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H158" s="8">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A159" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="D159" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="E159" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="F159" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="G159" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H159" s="8">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A160" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="D160" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="E160" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="F160" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="G160" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H160" s="8">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A161" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="D161" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="E161" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="F161" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="G161" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H161" s="8">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A162" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D162" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="E162" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="F162" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G162" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H162" s="8">
+        <v>909</v>
+      </c>
+      <c r="I162" s="8">
+        <v>900</v>
+      </c>
+      <c r="J162" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="K162" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="L162" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A163" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="B163" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="E163" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="F163" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="G163" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H163" s="8">
+        <v>900</v>
+      </c>
+      <c r="I163" s="8" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A164" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="D164" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="E164" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="F164" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="G164" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="H164" s="8">
+        <v>900</v>
+      </c>
+      <c r="I164" s="8" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A165" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D165" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E165" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="F165" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G165" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="H165" s="8">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A166" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="B166" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D166" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E166" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="F166" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G166" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="H166" s="8">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A167" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D167" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E167" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="F167" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G167" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="H167" s="8">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A168" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="B168" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D168" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E168" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="F168" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G168" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="H168" s="8">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A169" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="B169" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D169" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E169" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="F169" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G169" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="H169" s="8">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A170" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="B170" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D170" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E170" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="F170" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G170" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="H170" s="8">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A171" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="B171" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D171" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="E171" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="F171" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G171" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="H171" s="8">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A172" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="B172" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D172" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="E172" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="F172" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G172" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="H172" s="8">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A173" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="B173" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D173" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="E173" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="F173" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G173" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="H173" s="8">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A174" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="B174" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D174" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="E174" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="F174" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G174" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="H174" s="8">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A175" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="B175" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D175" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="E175" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="F175" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G175" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="H175" s="8">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A176" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="B176" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D176" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="E176" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="F176" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G176" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="H176" s="8">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="B177" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="D177" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="E177" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="F177" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="G177" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="H177" s="8">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="B178" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="D178" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="E178" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="F178" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="G178" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="H178" s="8">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="B179" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="D179" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E179" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="F179" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G179" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="H179" s="8">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="B180" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="D180" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E180" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="F180" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G180" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="H180" s="8">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="B181" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D181" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E181" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F181" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G181" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H181" s="8">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="B182" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D182" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E182" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F182" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G182" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H182" s="8">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="B183" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D183" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E183" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F183" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G183" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H183" s="8">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="B184" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C184" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D184" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E184" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F184" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G184" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H184" s="8">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="B185" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C185" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D185" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E185" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F185" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G185" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H185" s="8">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="B186" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C186" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D186" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E186" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F186" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G186" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H186" s="8">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="B187" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C187" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="D187" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="E187" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="F187" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="G187" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H187" s="8">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="B188" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C188" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="D188" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="E188" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="F188" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="G188" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H188" s="8">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="B189" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C189" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="D189" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="E189" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="F189" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="G189" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H189" s="8">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="B190" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C190" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="D190" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="E190" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="F190" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="G190" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H190" s="8">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="B191" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C191" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="D191" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="E191" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="F191" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="G191" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H191" s="8">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="B192" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="D192" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="E192" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="F192" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="G192" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H192" s="8">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A193" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="B193" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C193" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D193" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E193" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F193" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G193" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H193" s="8">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A194" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="B194" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C194" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D194" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E194" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F194" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G194" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H194" s="8">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A195" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="B195" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C195" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="D195" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="E195" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="F195" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="G195" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H195" s="8">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A196" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="B196" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C196" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="D196" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="E196" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="F196" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="G196" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H196" s="8">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A197" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="B197" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D197" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E197" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F197" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G197" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H197" s="8">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A198" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="B198" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C198" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D198" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E198" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F198" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G198" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H198" s="8">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A199" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="B199" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C199" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="D199" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="E199" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="F199" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="G199" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H199" s="8">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A200" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="B200" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="D200" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="E200" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="F200" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="G200" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H200" s="8">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A201" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="B201" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D201" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E201" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F201" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G201" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H201" s="8">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A202" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="B202" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="C202" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D202" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E202" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F202" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G202" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H202" s="8">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A203" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="B203" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="C203" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D203" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E203" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F203" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G203" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H203" s="8">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A204" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="B204" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D204" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E204" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F204" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G204" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H204" s="8">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A205" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="B205" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="C205" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D205" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E205" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F205" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G205" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H205" s="8">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A206" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="B206" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="C206" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D206" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="E206" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="F206" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="G206" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="H206" s="8">
+        <v>900</v>
+      </c>
+      <c r="I206" s="8" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A207" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="B207" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="C207" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D207" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E207" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F207" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G207" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H207" s="8">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A208" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="B208" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="C208" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D208" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E208" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F208" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G208" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H208" s="8">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A209" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="B209" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="C209" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D209" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E209" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F209" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G209" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H209" s="8">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A210" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="B210" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C210" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D210" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E210" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F210" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G210" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H210" s="8">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A211" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="B211" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C211" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D211" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E211" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F211" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G211" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H211" s="8">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A212" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="B212" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C212" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D212" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E212" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F212" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G212" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H212" s="8">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A213" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="B213" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="C213" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="D213" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="E213" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="F213" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G213" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H213" s="8">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A214" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="B214" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="C214" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="D214" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="E214" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="F214" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G214" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H214" s="8">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A215" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="B215" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="C215" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="D215" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="E215" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="F215" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G215" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H215" s="8">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A216" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="B216" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C216" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D216" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E216" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F216" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G216" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H216" s="8">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A217" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="B217" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C217" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D217" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E217" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F217" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G217" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H217" s="8">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A218" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="B218" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C218" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D218" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E218" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F218" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G218" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H218" s="8">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A219" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="B219" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C219" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D219" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E219" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F219" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G219" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H219" s="8">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A220" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="B220" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C220" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D220" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E220" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F220" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G220" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H220" s="8">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A221" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="B221" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C221" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D221" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E221" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F221" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G221" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H221" s="8">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A222" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="B222" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C222" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D222" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E222" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F222" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G222" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H222" s="8">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A223" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="B223" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="C223" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="D223" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="E223" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="F223" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G223" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="H223" s="8">
+        <v>900</v>
+      </c>
+      <c r="I223" s="8" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A224" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="B224" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="C224" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="D224" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="E224" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="F224" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="G224" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H224" s="8">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A225" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="B225" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="C225" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="D225" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="E225" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="F225" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="G225" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H225" s="8">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A226" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="B226" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="C226" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="D226" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="E226" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="F226" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="G226" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H226" s="8">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A227" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="B227" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="C227" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="D227" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="E227" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="F227" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="G227" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H227" s="8">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A228" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="B228" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="C228" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="D228" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="E228" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="F228" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="G228" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H228" s="8">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A229" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="B229" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="C229" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="D229" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="E229" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="F229" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="G229" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H229" s="8">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A230" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="B230" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="C230" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="D230" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="E230" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="F230" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="G230" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H230" s="8">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A231" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="B231" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="C231" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="D231" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="E231" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="F231" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="G231" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H231" s="8">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A232" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="B232" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="C232" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="D232" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="E232" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="F232" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="G232" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H232" s="8">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A233" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="B233" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C233" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="D233" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="E233" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="F233" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G233" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H233" s="8">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A234" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="B234" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C234" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="D234" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="E234" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="F234" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G234" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H234" s="8">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A235" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="B235" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C235" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="D235" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="E235" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="F235" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G235" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H235" s="8">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A236" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="B236" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C236" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="D236" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="E236" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="F236" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G236" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H236" s="8">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A237" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="B237" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C237" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D237" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E237" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F237" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G237" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="H237" s="8">
+        <v>341</v>
+      </c>
+      <c r="I237" s="8" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A238" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="B238" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C238" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D238" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E238" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F238" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G238" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="H238" s="8">
+        <v>342</v>
+      </c>
+      <c r="I238" s="8" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A239" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="B239" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="C239" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D239" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="E239" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="F239" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="G239" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H239" s="8">
+        <v>900</v>
+      </c>
+      <c r="I239" s="8" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A240" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="B240" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="C240" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="D240" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="E240" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="F240" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="G240" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H240" s="8">
+        <v>900</v>
+      </c>
+      <c r="I240" s="8" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A241" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B241" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="C241" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="D241" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="E241" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="F241" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G241" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="H241" s="8">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A242" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B242" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="C242" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="D242" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="E242" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="F242" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G242" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="H242" s="8">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A243" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="B243" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="C243" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="D243" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="E243" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="F243" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G243" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="H243" s="8">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A244" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="B244" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="C244" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="D244" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="E244" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="F244" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G244" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="H244" s="8">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A245" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B245" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C245" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D245" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E245" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F245" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G245" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H245" s="8">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A246" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B246" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C246" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D246" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E246" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F246" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G246" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H246" s="8">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A247" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B247" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C247" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D247" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E247" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F247" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G247" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H247" s="8">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A248" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B248" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C248" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D248" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E248" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F248" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G248" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H248" s="8">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A249" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B249" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C249" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D249" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="E249" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F249" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G249" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H249" s="8">
+        <v>1720</v>
+      </c>
+      <c r="I249" s="8">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A250" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B250" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C250" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D250" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E250" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F250" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G250" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H250" s="8">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A251" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B251" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C251" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D251" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E251" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F251" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G251" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H251" s="8">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A252" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B252" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C252" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D252" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E252" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F252" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G252" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H252" s="8">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A253" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B253" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C253" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D253" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E253" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F253" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G253" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H253" s="8">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A254" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B254" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C254" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D254" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E254" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F254" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G254" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H254" s="8">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A255" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B255" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C255" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D255" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E255" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F255" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G255" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H255" s="8">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A256" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B256" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C256" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D256" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E256" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F256" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G256" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H256" s="8">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A257" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B257" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C257" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D257" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E257" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F257" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G257" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H257" s="8">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A258" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B258" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C258" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D258" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E258" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F258" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G258" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H258" s="8">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A259" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B259" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C259" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D259" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="E259" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F259" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G259" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H259" s="8">
+        <v>1727</v>
+      </c>
+      <c r="I259" s="8">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A260" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B260" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C260" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D260" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E260" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F260" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G260" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H260" s="8">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A261" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B261" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C261" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D261" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E261" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F261" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G261" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H261" s="8">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A262" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B262" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C262" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D262" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E262" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F262" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G262" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H262" s="8">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A263" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B263" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C263" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D263" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E263" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F263" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G263" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H263" s="8">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A264" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B264" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C264" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D264" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E264" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F264" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G264" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H264" s="8">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A265" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B265" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C265" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D265" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E265" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F265" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G265" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H265" s="8">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A266" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B266" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C266" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D266" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="E266" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F266" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G266" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H266" s="8">
+        <v>1726</v>
+      </c>
+      <c r="I266" s="8">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A267" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B267" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C267" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D267" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E267" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F267" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G267" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H267" s="8">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A268" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B268" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C268" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D268" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E268" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F268" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G268" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H268" s="8">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A269" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B269" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C269" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D269" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E269" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F269" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G269" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H269" s="8">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A270" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B270" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C270" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D270" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E270" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F270" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G270" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H270" s="8">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A271" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B271" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C271" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D271" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E271" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F271" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G271" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H271" s="8">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A272" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B272" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C272" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D272" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E272" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F272" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G272" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H272" s="8">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A273" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B273" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C273" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D273" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E273" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F273" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G273" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H273" s="8">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A274" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B274" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C274" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D274" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E274" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F274" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G274" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H274" s="8">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A275" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B275" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C275" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D275" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E275" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F275" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G275" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H275" s="8">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A276" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B276" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C276" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D276" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E276" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F276" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G276" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H276" s="8">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A277" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B277" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C277" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D277" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E277" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F277" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G277" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H277" s="8">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A278" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B278" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C278" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D278" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E278" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F278" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G278" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H278" s="8">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A279" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B279" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C279" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D279" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E279" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F279" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G279" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H279" s="8">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A280" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B152" s="7" t="s">
+      <c r="B280" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C152" s="7" t="s">
+      <c r="C280" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D152" s="7" t="s">
+      <c r="D280" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E152" s="7" t="s">
+      <c r="E280" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F152" s="7" t="s">
+      <c r="F280" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G152" s="4" t="s">
+      <c r="G280" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H152" s="8">
+      <c r="H280" s="8">
         <v>1542</v>
       </c>
-      <c r="I152" s="8">
+      <c r="I280" s="8">
         <v>1810</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A281" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B281" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C281" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D281" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E281" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F281" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G281" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H281" s="8">
+        <v>1812</v>
       </c>
     </row>
   </sheetData>
